--- a/result/reg/2023_solo_all_ratio.xlsx
+++ b/result/reg/2023_solo_all_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.608</v>
+        <v>-0.737</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.603</v>
+        <v>-0.664</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.576</v>
+        <v>-0.625</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,11 +504,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>월평균소득</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.463</v>
+        <v>-0.277</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.44</v>
+        <v>-0.32</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.452</v>
+        <v>-0.315</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -535,19 +535,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.186</v>
+        <v>-0.282</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.285</v>
+        <v>-0.259</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.27</v>
+        <v>-0.296</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -566,19 +566,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>패스트푸드점</t>
+          <t>치킨전문점</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.187</v>
+        <v>-0.074</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.13</v>
+        <v>-0.133</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>슈퍼마켓</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.075</v>
+        <v>0.156</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -603,36 +603,42 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.067</v>
+        <v>0.165</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>쇼핑업체수</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.074</v>
+        <v>0.337</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.075</v>
+        <v>0.192</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -641,11 +647,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>양식음식점</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.121</v>
+        <v>0.216</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -653,7 +659,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.125</v>
+        <v>0.252</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -661,7 +667,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.128</v>
+        <v>0.337</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -672,11 +678,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.205</v>
+        <v>0.442</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -684,7 +690,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.135</v>
+        <v>0.43</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -692,7 +698,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.114</v>
+        <v>0.513</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -703,11 +709,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.242</v>
+        <v>0.331</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -715,15 +721,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2</v>
+        <v>0.486</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -732,7 +744,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.236</v>
+        <v>0.538</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -740,7 +752,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.212</v>
+        <v>0.517</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -748,7 +760,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.236</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -759,77 +771,53 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>양식음식점</t>
+          <t>네일숍</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.191</v>
+        <v>0.154</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>한식음식점</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.731</v>
+        <v>-0.107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>네일숍</t>
+          <t>일식음식점</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.319</v>
+        <v>0.052</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -840,11 +828,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>중식음식점</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.343</v>
+        <v>-0.054</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -859,11 +847,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>한식음식점</t>
+          <t>커피-음료</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.222</v>
+        <v>0.04</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -878,11 +866,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>일식음식점</t>
+          <t>패스트푸드점</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03</v>
+        <v>-0.094</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -897,11 +885,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>중식음식점</t>
+          <t>호프-간이주점</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.062</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -916,11 +904,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>대형마트</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.019</v>
+        <v>0.036</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -935,11 +923,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>제과점</t>
+          <t>쇼핑업체수</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.029</v>
+        <v>-0.091</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -954,11 +942,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>대형마트</t>
+          <t>슈퍼마켓</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.021</v>
+        <v>0.037</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -977,7 +965,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.057</v>
+        <v>0.035</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -996,7 +984,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1011,11 +999,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>종사자수</t>
+          <t>기타대학</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.044</v>
+        <v>0.048</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1027,25 +1015,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>기타대학</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
